--- a/Comparison/Static comp.xlsx
+++ b/Comparison/Static comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138C4C97-4F0D-43A7-831C-53F808A6FE76}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7B8618-3612-49D4-BB76-D283385E3965}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F029FE78-AF4D-4937-B39A-978D1089DFD5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Implemented</t>
   </si>
@@ -61,6 +61,27 @@
   </si>
   <si>
     <t>x86</t>
+  </si>
+  <si>
+    <t>Architecture independent</t>
+  </si>
+  <si>
+    <t>Pioneer</t>
+  </si>
+  <si>
+    <t>Partial, e.g. fails if rootkit can unistall itself prior to attestation</t>
+  </si>
+  <si>
+    <t>SWATT</t>
+  </si>
+  <si>
+    <t>RISC - 8-bit harvard architecure</t>
+  </si>
+  <si>
+    <t>Can be extended to 16 and 32-bit architectures</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -412,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCFAF16-BB1B-4EB6-BD4F-06707F21DBA7}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +444,7 @@
     <col min="5" max="5" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -439,8 +460,11 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -458,6 +482,55 @@
       </c>
       <c r="F2" t="s">
         <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison/Static comp.xlsx
+++ b/Comparison/Static comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7B8618-3612-49D4-BB76-D283385E3965}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70328750-F42D-4C53-87A7-2E981455FC45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F029FE78-AF4D-4937-B39A-978D1089DFD5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Implemented</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Simulated</t>
+  </si>
+  <si>
+    <t>Not specified</t>
+  </si>
+  <si>
+    <t>AbuHmed,</t>
   </si>
 </sst>
 </file>
@@ -433,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCFAF16-BB1B-4EB6-BD4F-06707F21DBA7}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +542,29 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Comparison/Static comp.xlsx
+++ b/Comparison/Static comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70328750-F42D-4C53-87A7-2E981455FC45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D139FAB7-8C53-43EE-8AEC-B5146DEEB343}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F029FE78-AF4D-4937-B39A-978D1089DFD5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Implemented</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>AbuHmed,</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>On ASIC</t>
+  </si>
+  <si>
+    <t>16-bit von Neumann (MSP430), RISC 8-bit Harvard (AVR)</t>
   </si>
 </sst>
 </file>
@@ -442,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCFAF16-BB1B-4EB6-BD4F-06707F21DBA7}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,22 +484,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -498,7 +507,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -510,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -521,7 +530,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -533,18 +542,18 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -553,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -562,6 +571,29 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Comparison/Static comp.xlsx
+++ b/Comparison/Static comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\MSc-Project\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D139FAB7-8C53-43EE-8AEC-B5146DEEB343}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE6E47A-2CAC-44B8-AF99-1CB5E74B6173}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F029FE78-AF4D-4937-B39A-978D1089DFD5}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
